--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/Team09_BDDCoders/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A4862D-70D3-334E-A5A4-3DC1B5FDD4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D9B59C-7FC8-9646-B1E6-80B2A1DD6570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>password</t>
   </si>
@@ -44,7 +44,37 @@
     <t>expected message</t>
   </si>
   <si>
-    <t>user</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>team@9%^</t>
+  </si>
+  <si>
+    <t>Please Check the Username/Password</t>
+  </si>
+  <si>
+    <t>Team9testuser</t>
+  </si>
+  <si>
+    <t>Please Check the Password</t>
+  </si>
+  <si>
+    <t>BddCoders@9</t>
+  </si>
+  <si>
+    <t>Please Check the Username</t>
+  </si>
+  <si>
+    <t>Please Enter the Username</t>
+  </si>
+  <si>
+    <t>Please Enter the Password</t>
+  </si>
+  <si>
+    <t>Please Enter the Username and Password</t>
   </si>
 </sst>
 </file>
@@ -413,11 +443,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F830A691-D612-924F-8805-CA94148EB49D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -438,17 +466,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C2" s="2"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="2"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -1,43 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/Documents/eclipse-workspace/DSAlgo/DSAlgoProject/src/test/resources/Exceldata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E83777-57FB-CB48-B39C-48DD7F8DCC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16320" activeTab="1" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
+    <workbookView windowWidth="27950" windowHeight="12230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Userdetails" sheetId="1" r:id="rId1"/>
     <sheet name="PythonCode" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageClass" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>username</t>
   </si>
@@ -349,18 +328,102 @@
   </si>
   <si>
     <t>Valid Applications</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>InvalidBatchId</t>
+  </si>
+  <si>
+    <t>ValidClassNo</t>
+  </si>
+  <si>
+    <t>InvalidClassNo</t>
+  </si>
+  <si>
+    <t>ValidClassTopic</t>
+  </si>
+  <si>
+    <t>InvalidClassTopic</t>
+  </si>
+  <si>
+    <t>ValidStaffId</t>
+  </si>
+  <si>
+    <t>InvalidStaffId</t>
+  </si>
+  <si>
+    <t>ValidClassDate</t>
+  </si>
+  <si>
+    <t>InvalidClassDate</t>
+  </si>
+  <si>
+    <t>SudhaBatch</t>
+  </si>
+  <si>
+    <t>SDET+JAVA</t>
+  </si>
+  <si>
+    <t>QA-Automation</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>"327654"</t>
+  </si>
+  <si>
+    <t>"23"</t>
+  </si>
+  <si>
+    <t>"6897"</t>
+  </si>
+  <si>
+    <t>Java-Basics</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>"U78"</t>
+  </si>
+  <si>
+    <t>"U90000"</t>
+  </si>
+  <si>
+    <t>"12/22/2023"</t>
+  </si>
+  <si>
+    <t>"9/22/2024"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,14 +431,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,18 +439,355 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -402,27 +795,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -471,7 +1154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -504,26 +1187,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -556,23 +1222,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -714,113 +1363,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F830A691-D612-924F-8805-CA94148EB49D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="26.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706CC76-B16E-304E-BF98-7854A809075E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -828,7 +1474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -836,7 +1482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -844,7 +1490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -852,7 +1498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -860,7 +1506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -868,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -876,7 +1522,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -884,7 +1530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -892,7 +1538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -900,7 +1546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -908,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -916,7 +1562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -924,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -932,7 +1578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -940,15 +1586,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" ht="17.5" spans="1:2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -956,7 +1602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -964,7 +1610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -972,15 +1618,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" ht="17.5" spans="1:2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -988,7 +1634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -996,7 +1642,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -1004,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1012,7 +1658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -1020,7 +1666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -1028,7 +1674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -1036,7 +1682,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1044,7 +1690,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1052,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -1060,7 +1706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>73</v>
       </c>
@@ -1068,7 +1714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -1076,7 +1722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1084,7 +1730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1092,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -1100,7 +1746,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -1108,7 +1754,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -1116,7 +1762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -1124,7 +1770,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -1132,7 +1778,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>90</v>
       </c>
@@ -1140,7 +1786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -1148,7 +1794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -1156,7 +1802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -1164,7 +1810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -1172,7 +1818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1180,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1188,7 +1834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -1198,5 +1844,120 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="11.4166666666667" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.9166666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.0833333333333" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="11.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="15.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/Team09_BDDCoders/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D9B59C-7FC8-9646-B1E6-80B2A1DD6570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C74AAB-59FC-CB4A-A9BC-CADF35F6A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
+    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="1" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNewUserDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -445,7 +446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F830A691-D612-924F-8805-CA94148EB49D}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -522,4 +525,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA22347-8582-0242-AAE4-F42DEC7AFF87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/Team09_BDDCoders/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C74AAB-59FC-CB4A-A9BC-CADF35F6A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812975F-7E05-DF47-A4FF-6924DFC24FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="1" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -76,13 +76,58 @@
   </si>
   <si>
     <t>Please Enter the Username and Password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>linkdeinurl</t>
+  </si>
+  <si>
+    <t>usercomments</t>
+  </si>
+  <si>
+    <t>postgraduate</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>98675434</t>
+  </si>
+  <si>
+    <t>www.linkedin/ronj.com</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,15 +176,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,12 +586,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA22347-8582-0242-AAE4-F42DEC7AFF87}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{300FD22F-BF0E-274D-8750-F0EACD928512}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/Team09_BDDCoders/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812975F-7E05-DF47-A4FF-6924DFC24FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FF1A9-311E-B24E-B2EB-55FE515650CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="1" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
+    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="2" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="AddNewUserDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageClass" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>password</t>
   </si>
@@ -121,6 +122,114 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>ValidBatchId</t>
+  </si>
+  <si>
+    <t>InvalidBatchId</t>
+  </si>
+  <si>
+    <t>ValidClassNo</t>
+  </si>
+  <si>
+    <t>InvalidClassNo</t>
+  </si>
+  <si>
+    <t>ValidClassDate</t>
+  </si>
+  <si>
+    <t>InvalidClassDate</t>
+  </si>
+  <si>
+    <t>ValidClassTopic</t>
+  </si>
+  <si>
+    <t>InvalidClassTopic</t>
+  </si>
+  <si>
+    <t>ValidStaffId</t>
+  </si>
+  <si>
+    <t>InvalidStaffId</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recordings</t>
+  </si>
+  <si>
+    <t>SudhaBatch</t>
+  </si>
+  <si>
+    <t>SDET+JAVA</t>
+  </si>
+  <si>
+    <t>QA-Automation</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>"1343"</t>
+  </si>
+  <si>
+    <t>"327654"</t>
+  </si>
+  <si>
+    <t>"23"</t>
+  </si>
+  <si>
+    <t>"6897"</t>
+  </si>
+  <si>
+    <t>"12/22/2023"</t>
+  </si>
+  <si>
+    <t>"9/22/2024"</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>"U78"</t>
+  </si>
+  <si>
+    <t>"U90000"</t>
+  </si>
+  <si>
+    <t>Advanced Python</t>
+  </si>
+  <si>
+    <t>SelfLearning</t>
+  </si>
+  <si>
+    <t>python Notes</t>
+  </si>
+  <si>
+    <t>c:\\Recordings</t>
   </si>
 </sst>
 </file>
@@ -180,12 +289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA22347-8582-0242-AAE4-F42DEC7AFF87}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -652,4 +764,131 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEF89CF-15BF-C943-A141-1F8647FC1977}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/Team09_BDDCoders/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FF1A9-311E-B24E-B2EB-55FE515650CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812975F-7E05-DF47-A4FF-6924DFC24FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="2" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
+    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="1" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="AddNewUserDetails" sheetId="2" r:id="rId2"/>
-    <sheet name="ManageClass" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -122,114 +121,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>BatchName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ProgramName</t>
-  </si>
-  <si>
-    <t>NoOfClasses</t>
-  </si>
-  <si>
-    <t>ValidBatchId</t>
-  </si>
-  <si>
-    <t>InvalidBatchId</t>
-  </si>
-  <si>
-    <t>ValidClassNo</t>
-  </si>
-  <si>
-    <t>InvalidClassNo</t>
-  </si>
-  <si>
-    <t>ValidClassDate</t>
-  </si>
-  <si>
-    <t>InvalidClassDate</t>
-  </si>
-  <si>
-    <t>ValidClassTopic</t>
-  </si>
-  <si>
-    <t>InvalidClassTopic</t>
-  </si>
-  <si>
-    <t>ValidStaffId</t>
-  </si>
-  <si>
-    <t>InvalidStaffId</t>
-  </si>
-  <si>
-    <t>ClassDescription</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Recordings</t>
-  </si>
-  <si>
-    <t>SudhaBatch</t>
-  </si>
-  <si>
-    <t>SDET+JAVA</t>
-  </si>
-  <si>
-    <t>QA-Automation</t>
-  </si>
-  <si>
-    <t>"14"</t>
-  </si>
-  <si>
-    <t>"1343"</t>
-  </si>
-  <si>
-    <t>"327654"</t>
-  </si>
-  <si>
-    <t>"23"</t>
-  </si>
-  <si>
-    <t>"6897"</t>
-  </si>
-  <si>
-    <t>"12/22/2023"</t>
-  </si>
-  <si>
-    <t>"9/22/2024"</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>"U78"</t>
-  </si>
-  <si>
-    <t>"U90000"</t>
-  </si>
-  <si>
-    <t>Advanced Python</t>
-  </si>
-  <si>
-    <t>SelfLearning</t>
-  </si>
-  <si>
-    <t>python Notes</t>
-  </si>
-  <si>
-    <t>c:\\Recordings</t>
   </si>
 </sst>
 </file>
@@ -289,15 +180,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -700,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA22347-8582-0242-AAE4-F42DEC7AFF87}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -764,131 +652,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEF89CF-15BF-C943-A141-1F8647FC1977}">
-  <dimension ref="A1:R2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/Exceldata/LMSTestData.xlsx
+++ b/src/test/resources/Exceldata/LMSTestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/Team09_BDDCoders/src/test/resources/Exceldata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auxilia/git/LMSHackathon_BDDCoders/src/test/resources/Exceldata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3812975F-7E05-DF47-A4FF-6924DFC24FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8A0E16-28D1-E442-BAE7-133AE4E8EC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="1" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
+    <workbookView xWindow="7640" yWindow="500" windowWidth="21160" windowHeight="16300" activeTab="2" xr2:uid="{18938CFE-15B3-A64D-A13E-D57D8BC40BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="AddNewUserDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageClass" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>password</t>
   </si>
@@ -121,6 +122,114 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>ValidBatchId</t>
+  </si>
+  <si>
+    <t>InvalidBatchId</t>
+  </si>
+  <si>
+    <t>ValidClassNo</t>
+  </si>
+  <si>
+    <t>InvalidClassNo</t>
+  </si>
+  <si>
+    <t>ValidClassDate</t>
+  </si>
+  <si>
+    <t>InvalidClassDate</t>
+  </si>
+  <si>
+    <t>ValidClassTopic</t>
+  </si>
+  <si>
+    <t>InvalidClassTopic</t>
+  </si>
+  <si>
+    <t>ValidStaffId</t>
+  </si>
+  <si>
+    <t>InvalidStaffId</t>
+  </si>
+  <si>
+    <t>ClassDescription</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Recordings</t>
+  </si>
+  <si>
+    <t>SudhaBatch</t>
+  </si>
+  <si>
+    <t>SDET+JAVA</t>
+  </si>
+  <si>
+    <t>QA-Automation</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>"1343"</t>
+  </si>
+  <si>
+    <t>"327654"</t>
+  </si>
+  <si>
+    <t>"23"</t>
+  </si>
+  <si>
+    <t>"6897"</t>
+  </si>
+  <si>
+    <t>"12/22/2023"</t>
+  </si>
+  <si>
+    <t>"9/22/2024"</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>"U78"</t>
+  </si>
+  <si>
+    <t>"U90000"</t>
+  </si>
+  <si>
+    <t>Advanced Python</t>
+  </si>
+  <si>
+    <t>SelfLearning</t>
+  </si>
+  <si>
+    <t>python Notes</t>
+  </si>
+  <si>
+    <t>c:\\Recordings</t>
   </si>
 </sst>
 </file>
@@ -180,12 +289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA22347-8582-0242-AAE4-F42DEC7AFF87}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -652,4 +764,131 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD73E0C-8ED6-8840-A2E7-0080FD7FEC1B}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>